--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_2.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>TIPO TRATAMIENTO</t>
   </si>
@@ -41,16 +41,16 @@
     <t>PapelCartón</t>
   </si>
   <si>
-    <t>Cartón: cajas</t>
-  </si>
-  <si>
-    <t>Aluminio: latas, rejas IBC</t>
-  </si>
-  <si>
-    <t>Rígido: bidones, tambores, botellas, IBC, tinetas</t>
-  </si>
-  <si>
-    <t>Pallet</t>
+    <t>Papel</t>
+  </si>
+  <si>
+    <t>Envase Aluminio</t>
+  </si>
+  <si>
+    <t>Plástico Film Embalaje</t>
+  </si>
+  <si>
+    <t>Caja de Madera</t>
   </si>
   <si>
     <t>28 - Región de Antofagasta - Nombre</t>
@@ -59,16 +59,16 @@
     <t>Valorización Energética</t>
   </si>
   <si>
-    <t>Cartón: esquineros, conos</t>
-  </si>
-  <si>
-    <t>Fierro: hojalata, tambores, zunchos, tinetas, tanques</t>
-  </si>
-  <si>
-    <t>Rígido: pallets, bins</t>
-  </si>
-  <si>
-    <t>Cajas, esquineros, carretes</t>
+    <t>Papel Compuesto (cemento)</t>
+  </si>
+  <si>
+    <t>Malla o Reja (IBC)</t>
+  </si>
+  <si>
+    <t>Plástico Envases Rígidos (Incl. Tapas)</t>
+  </si>
+  <si>
+    <t>Pallet de Madera</t>
   </si>
   <si>
     <t>32 - Región de Tarapacá - Hola</t>
@@ -77,39 +77,42 @@
     <t>Disposición Final en RS</t>
   </si>
   <si>
-    <t>Papel: bolsas, papel kraft, manuales</t>
-  </si>
-  <si>
-    <t>Flexibles rafia: sacos, maxisacos</t>
+    <t>Caja Cartón</t>
+  </si>
+  <si>
+    <t>Envase Hojalata</t>
+  </si>
+  <si>
+    <t>Plástico Sacos o Maxisacos</t>
   </si>
   <si>
     <t>34 - Región de Tarapacá - Nombre</t>
   </si>
   <si>
-    <t>Papel compuesto: bolsas de cemento, linear</t>
-  </si>
-  <si>
-    <t>Flexibles láminas: films de embalaje, bolsas, burbujas, contraible, flexitank</t>
+    <t>Papel/Cartón Otro</t>
+  </si>
+  <si>
+    <t>Metal Otro</t>
+  </si>
+  <si>
+    <t>Plástico EPS (Poliestireno Expandido)</t>
   </si>
   <si>
     <t>43 - Región de Coquimbo - sadassa</t>
   </si>
   <si>
-    <t>Flexibles: zunchos</t>
+    <t>Plástico Zuncho</t>
   </si>
   <si>
     <t>49 - Región de Arica y Parinacota - aaaaaaa</t>
   </si>
   <si>
-    <t>Poliestireno: cajas, protecciones, bandejas</t>
+    <t>Plástico Otro</t>
   </si>
   <si>
     <t>126 - Región de Antofagasta - asdasd</t>
   </si>
   <si>
-    <t>Plásticos compuestos: multicapas</t>
-  </si>
-  <si>
     <t>127 - Región de Antofagasta - asdasd</t>
   </si>
   <si>
@@ -134,7 +137,7 @@
     <t>NOMBRE GESTOR</t>
   </si>
   <si>
-    <t>RUT ESTABLECIMIENTO RECEPTOR</t>
+    <t>RUT GESTOR</t>
   </si>
   <si>
     <t>CÓDIGO ESTABLECIMIENTO RECEPTOR</t>
@@ -223,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" name="Metal" displayName="Metal" ref="E1:E3" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="E1:E3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" name="Metal" displayName="Metal" ref="E1:E5" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="E1:E5">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -235,8 +238,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" name="Plástico" displayName="Plástico" ref="F1:F8" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="F1:F8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" name="Plástico" displayName="Plástico" ref="F1:F7" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="F1:F7">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -668,51 +671,54 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -741,40 +747,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25"/>
@@ -836,10 +842,10 @@
       <formula1>Info!$A$2:$A$9</formula1>
     </dataValidation>
     <dataValidation type="date" operator="lessThanOrEqual" showErrorMessage="1" errorStyle="error" errorTitle="Fecha Inválida" error="No debe superar la fecha de hoy" sqref="B10:B51">
-      <formula1>45042.81298827546</formula1>
+      <formula1>45043.770959166664</formula1>
     </dataValidation>
     <dataValidation type="date" operator="lessThanOrEqual" showErrorMessage="1" errorStyle="error" errorTitle="Fecha Inválida" error="No debe superar la fecha de hoy" sqref="B2:B51">
-      <formula1>45042.81298826389</formula1>
+      <formula1>45043.770959166664</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="D10:D51">
       <formula1>Info!$B$2:$B$4</formula1>
